--- a/src/Input_Files/duchy_names/francia_duchies.xlsx
+++ b/src/Input_Files/duchy_names/francia_duchies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B32109-F225-4712-9F99-F2C403802599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE335005-2C43-4F3E-A6D7-8894D3130F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="6420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="duchies" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
   <si>
     <t>owner_id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>(235, 224, 0)</t>
-  </si>
-  <si>
     <t>Flanders</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Normandy</t>
   </si>
   <si>
-    <t>(0, 128, 255)</t>
-  </si>
-  <si>
     <t>ile_de_france</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>CKU_amboise_29</t>
   </si>
   <si>
-    <t>(0, 128, 129)</t>
-  </si>
-  <si>
     <t>Burgundy</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Alencon</t>
   </si>
   <si>
-    <t>(0, 49, 82)</t>
-  </si>
-  <si>
     <t>Britanny</t>
   </si>
   <si>
@@ -256,6 +244,102 @@
   </si>
   <si>
     <t>feudal_government</t>
+  </si>
+  <si>
+    <t>(128, 0, 32)</t>
+  </si>
+  <si>
+    <t>(237, 237, 0)</t>
+  </si>
+  <si>
+    <t>(49, 140, 231)</t>
+  </si>
+  <si>
+    <t>(84, 84, 129)</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>gent</t>
+  </si>
+  <si>
+    <t>arras</t>
+  </si>
+  <si>
+    <t>rouen</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>troyes</t>
+  </si>
+  <si>
+    <t>dijon</t>
+  </si>
+  <si>
+    <t>orleans</t>
+  </si>
+  <si>
+    <t>alencon</t>
+  </si>
+  <si>
+    <t>nantes</t>
+  </si>
+  <si>
+    <t>angers</t>
+  </si>
+  <si>
+    <t>tours</t>
+  </si>
+  <si>
+    <t>bourges</t>
+  </si>
+  <si>
+    <t>moulins</t>
+  </si>
+  <si>
+    <t>clermont</t>
+  </si>
+  <si>
+    <t>limoges</t>
+  </si>
+  <si>
+    <t>poitiers</t>
+  </si>
+  <si>
+    <t>saintes</t>
+  </si>
+  <si>
+    <t>bordeaux</t>
+  </si>
+  <si>
+    <t>armagnac</t>
+  </si>
+  <si>
+    <t>toulouse</t>
+  </si>
+  <si>
+    <t>aix_en_provence</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>bar_le_duc</t>
+  </si>
+  <si>
+    <t>nancy</t>
+  </si>
+  <si>
+    <t>dole</t>
+  </si>
+  <si>
+    <t>CKU_alsace_31</t>
   </si>
 </sst>
 </file>
@@ -731,22 +815,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -757,455 +843,539 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(C2)</f>
         <v>flanders</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B22" si="0">LOWER(C3)</f>
+        <v>picardy</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>normandy</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>champagne</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>burgundy</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>orleans</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>alencon</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B23" si="0">LOWER(C3)</f>
-        <v>picardy</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>normandy</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>champagne</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>burgundy</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>orleans</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>britanny</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>alencon</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>anjou</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>britanny</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>touraine</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>anjou</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>berry</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>touraine</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>bourbon</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>berry</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>auvergne</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>bourbon</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>limousin</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>auvergne</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>poitou</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>limousin</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>saintonge</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>poitou</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>guyenne</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>saintonge</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>gascogne</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>guyenne</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>languedoc</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>gascogne</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>provence</v>
+      </c>
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>languedoc</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B23" t="str">
+        <f>LOWER(C23)</f>
+        <v>dauphine</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>provence</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>dauphine</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D29"/>
+      <c r="G29"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A27:A1048576">
